--- a/ZoningAtlas/raw_data/Excel_workbooks/Orleans_Craftsbury_features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Orleans_Craftsbury_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tinsk\Documents\Summer Job\Orleans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F0A9A8-A20C-4D42-8232-5DCF68E4B165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1C8723-7191-8549-856B-5902F2B1F2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="0" windowWidth="18900" windowHeight="10965" activeTab="1" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
+    <workbookView xWindow="6300" yWindow="500" windowWidth="18900" windowHeight="10960" activeTab="1" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
@@ -1983,50 +1983,50 @@
       <selection pane="bottomRight" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
-    <col min="12" max="12" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="14" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.875" customWidth="1"/>
-    <col min="16" max="16" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.875" customWidth="1"/>
-    <col min="18" max="18" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.875" customWidth="1"/>
-    <col min="20" max="20" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.875" customWidth="1"/>
-    <col min="22" max="22" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.875" customWidth="1"/>
-    <col min="24" max="24" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.875" customWidth="1"/>
-    <col min="26" max="26" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.875" customWidth="1"/>
-    <col min="28" max="28" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.875" customWidth="1"/>
-    <col min="30" max="30" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.875" customWidth="1"/>
-    <col min="32" max="32" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.875" customWidth="1"/>
-    <col min="34" max="34" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.875" customWidth="1"/>
-    <col min="36" max="36" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.875" customWidth="1"/>
-    <col min="38" max="38" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
+    <col min="20" max="20" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" customWidth="1"/>
+    <col min="24" max="24" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.83203125" customWidth="1"/>
+    <col min="26" max="26" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.83203125" customWidth="1"/>
+    <col min="28" max="28" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.83203125" customWidth="1"/>
+    <col min="30" max="30" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.83203125" customWidth="1"/>
+    <col min="32" max="32" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.83203125" customWidth="1"/>
+    <col min="34" max="34" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.83203125" customWidth="1"/>
+    <col min="36" max="36" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.83203125" customWidth="1"/>
+    <col min="38" max="38" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2131,7 +2131,7 @@
       <c r="AK2" s="1"/>
       <c r="AM2" s="1"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="AK3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2179,7 +2179,7 @@
       <c r="AK4" s="1"/>
       <c r="AM4" s="1"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2203,7 +2203,7 @@
       <c r="AK5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="AK6" s="1"/>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2251,7 +2251,7 @@
       <c r="AK7" s="1"/>
       <c r="AM7" s="1"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2275,7 +2275,7 @@
       <c r="AK8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2299,7 +2299,7 @@
       <c r="AK9" s="1"/>
       <c r="AM9" s="1"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="AK10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="AK11" s="1"/>
       <c r="AM11" s="1"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="AK12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2395,7 +2395,7 @@
       <c r="AK13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2419,7 +2419,7 @@
       <c r="AK14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2443,7 +2443,7 @@
       <c r="AK15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="AK16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="AK17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="AK18" s="1"/>
       <c r="AM18" s="1"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="AK19" s="1"/>
       <c r="AM19" s="1"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2582,7 +2582,7 @@
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="AK34" s="1"/>
       <c r="AM34" s="1"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="AK35" s="1"/>
       <c r="AM35" s="1"/>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="AL50" s="1"/>
       <c r="AM50" s="1"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -4352,7 +4352,7 @@
       <c r="AK51" s="1"/>
       <c r="AM51" s="1"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="AK52" s="1"/>
       <c r="AM52" s="1"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -5020,7 +5020,7 @@
       <c r="AK63" s="1"/>
       <c r="AM63" s="1"/>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -5044,7 +5044,7 @@
       <c r="AK64" s="1"/>
       <c r="AM64" s="1"/>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>39</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -5459,7 +5459,7 @@
       <c r="AK71" s="1"/>
       <c r="AM71" s="1"/>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>42</v>
       </c>
@@ -5483,7 +5483,7 @@
       <c r="AK72" s="1"/>
       <c r="AM72" s="1"/>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -6127,7 +6127,7 @@
       <c r="AK83" s="1"/>
       <c r="AM83" s="1"/>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -6151,7 +6151,7 @@
       <c r="AK84" s="1"/>
       <c r="AM84" s="1"/>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>40</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -6628,7 +6628,7 @@
       <c r="AK92" s="1"/>
       <c r="AM92" s="1"/>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -6652,7 +6652,7 @@
       <c r="AK93" s="1"/>
       <c r="AM93" s="1"/>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>44</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>45</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>46</v>
       </c>
@@ -7296,7 +7296,7 @@
       <c r="AK104" s="1"/>
       <c r="AM104" s="1"/>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -7320,7 +7320,7 @@
       <c r="AK105" s="1"/>
       <c r="AM105" s="1"/>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>34</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>48</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>49</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>50</v>
       </c>
@@ -7773,12 +7773,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>42</v>
       </c>
@@ -7802,7 +7802,7 @@
       <c r="AK114" s="1"/>
       <c r="AM114" s="1"/>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>91</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>45</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>52</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>53</v>
       </c>
@@ -8341,7 +8341,7 @@
       <c r="AK123" s="1"/>
       <c r="AM123" s="1"/>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>54</v>
       </c>
@@ -8365,7 +8365,7 @@
       <c r="AK124" s="1"/>
       <c r="AM124" s="1"/>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>55</v>
       </c>
@@ -8389,7 +8389,7 @@
       <c r="AK125" s="1"/>
       <c r="AM125" s="1"/>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>42</v>
       </c>
@@ -8413,7 +8413,7 @@
       <c r="AK126" s="1"/>
       <c r="AM126" s="1"/>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>31</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>56</v>
       </c>
@@ -8561,7 +8561,7 @@
       <c r="AK129" s="1"/>
       <c r="AM129" s="1"/>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>57</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>48</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>59</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -8852,7 +8852,7 @@
       <c r="AK134" s="1"/>
       <c r="AM134" s="1"/>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>91</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>61</v>
       </c>
@@ -9000,7 +9000,7 @@
       <c r="AK137" s="1"/>
       <c r="AM137" s="1"/>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>62</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>63</v>
       </c>
@@ -9105,7 +9105,7 @@
       <c r="AK139" s="1"/>
       <c r="AM139" s="1"/>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>64</v>
       </c>
@@ -9129,7 +9129,7 @@
       <c r="AK140" s="1"/>
       <c r="AM140" s="1"/>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>65</v>
       </c>
@@ -9153,7 +9153,7 @@
       <c r="AK141" s="1"/>
       <c r="AM141" s="1"/>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>66</v>
       </c>
@@ -9177,7 +9177,7 @@
       <c r="AK142" s="1"/>
       <c r="AM142" s="1"/>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>67</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>95</v>
       </c>
@@ -10286,15 +10286,15 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12:S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>72</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -10334,27 +10334,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -10362,98 +10362,26 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
-      </c>
-      <c r="B12">
-        <f>Districts!B1</f>
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f>Districts!D1</f>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f>Districts!F1</f>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f>Districts!H1</f>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>Districts!J1</f>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f>Districts!L1</f>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f>Districts!N1</f>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f>Districts!P1</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>Districts!R1</f>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f>Districts!T1</f>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f>Districts!V1</f>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f>Districts!X1</f>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f>Districts!Z1</f>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f>Districts!AB1</f>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f>Districts!AD1</f>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f>Districts!AF1</f>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f>Districts!AH1</f>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f>Districts!AJ1</f>
-        <v>0</v>
       </c>
       <c r="T12">
         <f>Districts!AL1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -10501,9 +10429,9 @@
       <selection activeCell="D16" sqref="D16:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -10514,7 +10442,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -10525,7 +10453,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -10533,7 +10461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -10541,12 +10469,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>81</v>
       </c>
@@ -10578,7 +10506,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>93</v>
       </c>
@@ -10610,7 +10538,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>82</v>
       </c>
@@ -10642,7 +10570,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>83</v>
       </c>
@@ -10674,22 +10602,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>106</v>
       </c>
@@ -10697,7 +10625,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>108</v>
       </c>
@@ -10705,7 +10633,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>109</v>
       </c>
@@ -10713,7 +10641,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>104</v>
       </c>
@@ -10721,7 +10649,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>107</v>
       </c>
@@ -10729,7 +10657,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>105</v>
       </c>
